--- a/Game_Engine/Shared/Resources/tables/entities.xlsx
+++ b/Game_Engine/Shared/Resources/tables/entities.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelgournay/Documents/GitHub/Physics-Engine/Physics_Engine/Shared/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelgournay/Documents/GitHub/Physics-Engine/Game_Engine/Shared/Resources/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="PivotTable Style 1" table="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -365,7 +367,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -375,24 +377,24 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -400,27 +402,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>

--- a/Game_Engine/Shared/Resources/tables/entities.xlsx
+++ b/Game_Engine/Shared/Resources/tables/entities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Health</t>
   </si>
   <si>
-    <t>Speed</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -48,6 +45,12 @@
   </si>
   <si>
     <t>Strength</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>Max Speed</t>
   </si>
 </sst>
 </file>
@@ -364,59 +367,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -425,6 +437,9 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
     </row>

--- a/Game_Engine/Shared/Resources/tables/entities.xlsx
+++ b/Game_Engine/Shared/Resources/tables/entities.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Health</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Max Speed</t>
+  </si>
+  <si>
+    <t>Base Speed</t>
   </si>
 </sst>
 </file>
@@ -367,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -383,16 +386,19 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -403,13 +409,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -420,13 +429,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -434,12 +446,15 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>

--- a/Game_Engine/Shared/Resources/tables/entities.xlsx
+++ b/Game_Engine/Shared/Resources/tables/entities.xlsx
@@ -60,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,33 +382,33 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -419,7 +428,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -439,7 +448,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">

--- a/Game_Engine/Shared/Resources/tables/entities.xlsx
+++ b/Game_Engine/Shared/Resources/tables/entities.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,10 +412,10 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>
